--- a/profileid.xlsx
+++ b/profileid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinhtiendat1901\WebstormProjects\gpm-auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C914DB63-B9FE-421C-9F7C-703A280CB5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D3A40C-20C7-44DB-A5AC-45F0FAC9B684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43695" yWindow="3510" windowWidth="28800" windowHeight="15345" xr2:uid="{719EEC14-E9E0-43BC-B950-5B8CF85C872C}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{719EEC14-E9E0-43BC-B950-5B8CF85C872C}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>70c1df27-5aac-4e9e-ac1a-0b1e55dfd261</t>
+    <t>4577abb4-40e6-4b0c-a61e-ff27e8b2f82c</t>
   </si>
   <si>
-    <t>452d3aaf-89d6-4e75-9364-17a90d6a4c7b</t>
+    <t>0d11b14c-f687-4cbf-96a5-fc07f78819d1</t>
   </si>
   <si>
-    <t>e0ff2f9a-2821-4458-a387-26d937ec31c9</t>
+    <t>0ae1ac6f-79f2-47e5-af65-5ff5262df059</t>
   </si>
   <si>
-    <t>c349e32e-d4be-4a88-bee1-ce7c61be1b42</t>
+    <t>a83683e1-fa9d-4dcf-83a0-8b9569b1a23b</t>
   </si>
   <si>
-    <t>6b163b92-8b87-447a-b910-6e2baa4119ec</t>
+    <t>01587060-e527-429e-84c9-4ca5ae5f8bed</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/profileid.xlsx
+++ b/profileid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinhtiendat1901\WebstormProjects\gpm-auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D3A40C-20C7-44DB-A5AC-45F0FAC9B684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555EBB9E-A81F-43B7-B62D-DD84976EB17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{719EEC14-E9E0-43BC-B950-5B8CF85C872C}"/>
   </bookViews>
@@ -36,21 +36,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>4577abb4-40e6-4b0c-a61e-ff27e8b2f82c</t>
-  </si>
-  <si>
-    <t>0d11b14c-f687-4cbf-96a5-fc07f78819d1</t>
-  </si>
-  <si>
-    <t>0ae1ac6f-79f2-47e5-af65-5ff5262df059</t>
-  </si>
-  <si>
-    <t>a83683e1-fa9d-4dcf-83a0-8b9569b1a23b</t>
-  </si>
-  <si>
-    <t>01587060-e527-429e-84c9-4ca5ae5f8bed</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>6495b3b5-7f2e-4a57-b00d-03a87dd3e61e</t>
+  </si>
+  <si>
+    <t>714b5984-e8f5-4f4f-af06-b039bca65752</t>
+  </si>
+  <si>
+    <t>f8d6bddc-9ca1-4f02-bb22-a94c92e1c2e1</t>
+  </si>
+  <si>
+    <t>c8ad5ca2-f033-455b-aa62-5f58da6723e9</t>
+  </si>
+  <si>
+    <t>2513bcc8-46c9-4ecd-8d49-56975ef6b67a</t>
+  </si>
+  <si>
+    <t>e625bd1e-d744-4150-a131-742a37959c13</t>
+  </si>
+  <si>
+    <t>bb1b3563-546c-4ffc-b4ad-e0ae785ff18c</t>
+  </si>
+  <si>
+    <t>f6ec59c6-f952-4b34-b4d4-5768435a54a2</t>
+  </si>
+  <si>
+    <t>23898c91-3a27-4708-9be4-bff95db37718</t>
+  </si>
+  <si>
+    <t>6dbe427f-f317-44e6-a9b8-5b2f9dc845d0</t>
   </si>
 </sst>
 </file>
@@ -86,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -402,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BC27E5-C96A-4B34-9D0B-D493FFCB5A8F}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,13 +445,38 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/profileid.xlsx
+++ b/profileid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinhtiendat1901\WebstormProjects\gpm-auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555EBB9E-A81F-43B7-B62D-DD84976EB17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60599463-2CBF-4274-940A-F923CA2CCDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{719EEC14-E9E0-43BC-B950-5B8CF85C872C}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" xr2:uid="{719EEC14-E9E0-43BC-B950-5B8CF85C872C}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -38,34 +38,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>6495b3b5-7f2e-4a57-b00d-03a87dd3e61e</t>
-  </si>
-  <si>
-    <t>714b5984-e8f5-4f4f-af06-b039bca65752</t>
-  </si>
-  <si>
-    <t>f8d6bddc-9ca1-4f02-bb22-a94c92e1c2e1</t>
-  </si>
-  <si>
-    <t>c8ad5ca2-f033-455b-aa62-5f58da6723e9</t>
-  </si>
-  <si>
-    <t>2513bcc8-46c9-4ecd-8d49-56975ef6b67a</t>
-  </si>
-  <si>
-    <t>e625bd1e-d744-4150-a131-742a37959c13</t>
-  </si>
-  <si>
-    <t>bb1b3563-546c-4ffc-b4ad-e0ae785ff18c</t>
-  </si>
-  <si>
-    <t>f6ec59c6-f952-4b34-b4d4-5768435a54a2</t>
-  </si>
-  <si>
-    <t>23898c91-3a27-4708-9be4-bff95db37718</t>
-  </si>
-  <si>
-    <t>6dbe427f-f317-44e6-a9b8-5b2f9dc845d0</t>
+    <t>8bb6e1fb-452b-42e1-b824-dd6eabb0882e</t>
+  </si>
+  <si>
+    <t>d7c3247c-1a6e-45f9-afcf-ce6a9307d433</t>
+  </si>
+  <si>
+    <t>bb3a7096-7bb0-4017-9b0d-8487f6e1fd55</t>
+  </si>
+  <si>
+    <t>d63e1603-41ea-4ecd-a1af-98144584545e</t>
+  </si>
+  <si>
+    <t>4b0a991a-0f31-4e18-ae18-d5611bf93ff4</t>
+  </si>
+  <si>
+    <t>6ef129cc-ec3a-40d8-815c-58d1725da879</t>
+  </si>
+  <si>
+    <t>e54117ce-d657-43b4-bc40-02d0a45fb739</t>
+  </si>
+  <si>
+    <t>67a6eac8-d8e8-4d42-b94c-b5ab8a6c7da0</t>
+  </si>
+  <si>
+    <t>cdaf3586-fb03-4d76-a7e1-8a38e2e3fdc1</t>
+  </si>
+  <si>
+    <t>bb101cff-403d-4134-8821-d1750d6f8dca</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/profileid.xlsx
+++ b/profileid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinhtiendat1901\WebstormProjects\gpm-auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60599463-2CBF-4274-940A-F923CA2CCDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F40A2C-5CE0-4862-BF22-AD2F7DCC1228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" xr2:uid="{719EEC14-E9E0-43BC-B950-5B8CF85C872C}"/>
   </bookViews>
@@ -38,34 +38,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>8bb6e1fb-452b-42e1-b824-dd6eabb0882e</t>
-  </si>
-  <si>
-    <t>d7c3247c-1a6e-45f9-afcf-ce6a9307d433</t>
-  </si>
-  <si>
-    <t>bb3a7096-7bb0-4017-9b0d-8487f6e1fd55</t>
-  </si>
-  <si>
-    <t>d63e1603-41ea-4ecd-a1af-98144584545e</t>
-  </si>
-  <si>
-    <t>4b0a991a-0f31-4e18-ae18-d5611bf93ff4</t>
-  </si>
-  <si>
-    <t>6ef129cc-ec3a-40d8-815c-58d1725da879</t>
-  </si>
-  <si>
-    <t>e54117ce-d657-43b4-bc40-02d0a45fb739</t>
-  </si>
-  <si>
-    <t>67a6eac8-d8e8-4d42-b94c-b5ab8a6c7da0</t>
-  </si>
-  <si>
-    <t>cdaf3586-fb03-4d76-a7e1-8a38e2e3fdc1</t>
-  </si>
-  <si>
-    <t>bb101cff-403d-4134-8821-d1750d6f8dca</t>
+    <t>8652dd89-7296-46d4-b44d-b56ce4da7d98</t>
+  </si>
+  <si>
+    <t>8f51d7d8-dd2c-4c9e-9d6d-08e9e85ec996</t>
+  </si>
+  <si>
+    <t>46116ec6-3775-4468-a473-a610b69341e9</t>
+  </si>
+  <si>
+    <t>83ee5be9-e25c-4318-8b52-559914092d26</t>
+  </si>
+  <si>
+    <t>15daa4bc-62ca-45c1-b99b-3cc7723dcde6</t>
+  </si>
+  <si>
+    <t>6e23e981-2f41-4f00-b8e0-748ff26145ec</t>
+  </si>
+  <si>
+    <t>c7d4bf91-bc61-4d3c-a652-787b0b4dc578</t>
+  </si>
+  <si>
+    <t>ad0edf01-09e0-4a25-8573-ee56a76f5f0a</t>
+  </si>
+  <si>
+    <t>788eb515-c57f-49b8-9612-98de3d5b37ac</t>
+  </si>
+  <si>
+    <t>ae5535bc-7d63-432b-8a85-79544af787b3</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/profileid.xlsx
+++ b/profileid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinhtiendat1901\WebstormProjects\gpm-auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F40A2C-5CE0-4862-BF22-AD2F7DCC1228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CD3C61-4088-44C1-8C3D-784FBF813EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" xr2:uid="{719EEC14-E9E0-43BC-B950-5B8CF85C872C}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15345" xr2:uid="{719EEC14-E9E0-43BC-B950-5B8CF85C872C}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -36,36 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>8652dd89-7296-46d4-b44d-b56ce4da7d98</t>
+    <t>cb490a1f-e98a-47f1-a33b-110f9731336b</t>
   </si>
   <si>
-    <t>8f51d7d8-dd2c-4c9e-9d6d-08e9e85ec996</t>
+    <t>526f015f-ba61-4ea7-b5b7-7a64bbe7819e</t>
   </si>
   <si>
-    <t>46116ec6-3775-4468-a473-a610b69341e9</t>
+    <t>3376a2db-a62e-4768-aef0-f90efb4f14c1</t>
   </si>
   <si>
-    <t>83ee5be9-e25c-4318-8b52-559914092d26</t>
+    <t>8cf757d1-aa20-49d3-aa49-002e525a9b40</t>
   </si>
   <si>
-    <t>15daa4bc-62ca-45c1-b99b-3cc7723dcde6</t>
-  </si>
-  <si>
-    <t>6e23e981-2f41-4f00-b8e0-748ff26145ec</t>
-  </si>
-  <si>
-    <t>c7d4bf91-bc61-4d3c-a652-787b0b4dc578</t>
-  </si>
-  <si>
-    <t>ad0edf01-09e0-4a25-8573-ee56a76f5f0a</t>
-  </si>
-  <si>
-    <t>788eb515-c57f-49b8-9612-98de3d5b37ac</t>
-  </si>
-  <si>
-    <t>ae5535bc-7d63-432b-8a85-79544af787b3</t>
+    <t>fafd1d6b-abfe-4d28-b279-ebabdef00a44</t>
   </si>
 </sst>
 </file>
@@ -418,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BC27E5-C96A-4B34-9D0B-D493FFCB5A8F}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,31 +439,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/profileid.xlsx
+++ b/profileid.xlsx
@@ -1,69 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinhtiendat1901\WebstormProjects\gpm-auto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CD3C61-4088-44C1-8C3D-784FBF813EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15345" xr2:uid="{719EEC14-E9E0-43BC-B950-5B8CF85C872C}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Trang_tính1" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Sheet2" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>cb490a1f-e98a-47f1-a33b-110f9731336b</t>
+    <t>28e0bc9e-21f8-4f4b-9f8e-753944213b65</t>
   </si>
   <si>
-    <t>526f015f-ba61-4ea7-b5b7-7a64bbe7819e</t>
-  </si>
-  <si>
-    <t>3376a2db-a62e-4768-aef0-f90efb4f14c1</t>
-  </si>
-  <si>
-    <t>8cf757d1-aa20-49d3-aa49-002e525a9b40</t>
-  </si>
-  <si>
-    <t>fafd1d6b-abfe-4d28-b279-ebabdef00a44</t>
+    <t>0183aab9-7022-4d38-a4b7-cc9a952e0601</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,12 +56,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -402,17 +371,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BC27E5-C96A-4B34-9D0B-D493FFCB5A8F}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.7109375" customWidth="1"/>
   </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -424,22 +407,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>